--- a/thirty-days-study-plan.xlsx
+++ b/thirty-days-study-plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amit.dixit\Desktop\togaf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\togaf-feature-set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12347B5-9B9A-4942-A63C-D25A3760DAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149673F6-22EF-4BD4-A765-C47559F35B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -45,15 +45,16 @@
     <t>#</t>
   </si>
   <si>
-    <t>- Chapter 1. Introduction
-- Chapter 2. Core Concepts 
-- Chapter 3. Definitions</t>
-  </si>
-  <si>
     <t>Exam Date (Level 1 &amp; 2 )</t>
   </si>
   <si>
-    <t>- Create mind map of Core Concepts</t>
+    <t>Architecture Content Framework</t>
+  </si>
+  <si>
+    <t>- Create mind map of Core Concepts, Introduction</t>
+  </si>
+  <si>
+    <t>Architecture Capability Framework</t>
   </si>
 </sst>
 </file>
@@ -445,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -482,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -509,7 +510,9 @@
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -521,7 +524,9 @@
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -533,7 +538,9 @@
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -545,7 +552,9 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -557,7 +566,9 @@
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -569,7 +580,9 @@
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
@@ -581,7 +594,9 @@
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -870,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/thirty-days-study-plan.xlsx
+++ b/thirty-days-study-plan.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\togaf-feature-set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149673F6-22EF-4BD4-A765-C47559F35B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26272A-BA40-4714-8C09-BBE2C38DEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -36,32 +45,104 @@
     <t>Month</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
     <t>February</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>Exam Date (Level 1 &amp; 2 )</t>
-  </si>
-  <si>
-    <t>Architecture Content Framework</t>
-  </si>
-  <si>
-    <t>- Create mind map of Core Concepts, Introduction</t>
-  </si>
-  <si>
-    <t>Architecture Capability Framework</t>
+    <t>View, ViewPoints and Building Blocks Content Mgmt Framework</t>
+  </si>
+  <si>
+    <t>TRM and IIIRM</t>
+  </si>
+  <si>
+    <t>Architecture Repo</t>
+  </si>
+  <si>
+    <t>Enterprise Continuum</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Architecture Governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> book 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> book 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> book 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> book 1-2-3</t>
+  </si>
+  <si>
+    <t>Give the exam</t>
+  </si>
+  <si>
+    <t>Schedule the exam and start revising</t>
+  </si>
+  <si>
+    <t>book 4</t>
+  </si>
+  <si>
+    <t>Revision of all questions</t>
+  </si>
+  <si>
+    <t>Q 101-102-103-104-105</t>
+  </si>
+  <si>
+    <t>Q 106-107-108-109-110</t>
+  </si>
+  <si>
+    <t>Q 111-112-113-114</t>
+  </si>
+  <si>
+    <t>Revision of all questions (101-114)</t>
+  </si>
+  <si>
+    <t>Architecture Partioning, TRM and IIIRM</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>ADM Phase Pre-A-Requirement Management (RM)</t>
+  </si>
+  <si>
+    <t>ADM Phase Pre-A-RM-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADM Phase Pre-A-RM-B-C </t>
+  </si>
+  <si>
+    <t>ADM Phase Pre-A-RM-B-C-D</t>
+  </si>
+  <si>
+    <t>ADM Phase Pre-A-RM-B-C-D-E</t>
+  </si>
+  <si>
+    <t>ADM Phase Pre-A-RM-B-C-D-E-F</t>
+  </si>
+  <si>
+    <t>ADM Phase Pre-A-RM-B-C-D-E-G</t>
+  </si>
+  <si>
+    <t>ADM Phase Pre-RM-A-B-C-D-E-H</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +158,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +175,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,9 +239,6 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -164,6 +246,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E35"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,12 +549,13 @@
     <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -471,422 +566,388 @@
       <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="4">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>13</v>
       </c>
       <c r="C15" s="4">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
         <v>15</v>
       </c>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="9">
+        <v>28</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="4">
-        <v>3</v>
+      <c r="C18" s="11">
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
-        <v>4</v>
+      <c r="C19" s="11">
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
-        <v>5</v>
+      <c r="C20" s="11">
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="11">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>5</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
         <v>6</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4">
-        <v>10</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28" s="4">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
-        <v>14</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="E23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
-        <v>29</v>
-      </c>
-      <c r="C31" s="4">
-        <v>16</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>30</v>
-      </c>
-      <c r="C32" s="4">
-        <v>17</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4">
-        <v>19</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
-        <v>33</v>
-      </c>
-      <c r="C35" s="10">
-        <v>20</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/thirty-days-study-plan.xlsx
+++ b/thirty-days-study-plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\togaf-feature-set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26272A-BA40-4714-8C09-BBE2C38DEEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA8C6E-F178-4FF9-9A21-B47DBD5D1D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +625,7 @@
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
@@ -643,7 +643,7 @@
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
@@ -661,7 +661,7 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
@@ -679,7 +679,7 @@
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -697,7 +697,7 @@
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3">

--- a/thirty-days-study-plan.xlsx
+++ b/thirty-days-study-plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\togaf-feature-set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FA8C6E-F178-4FF9-9A21-B47DBD5D1D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E7059-FD66-4810-879B-9464FA329FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -45,97 +45,43 @@
     <t>Month</t>
   </si>
   <si>
-    <t>February</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>View, ViewPoints and Building Blocks Content Mgmt Framework</t>
-  </si>
-  <si>
-    <t>TRM and IIIRM</t>
-  </si>
-  <si>
-    <t>Architecture Repo</t>
-  </si>
-  <si>
-    <t>Enterprise Continuum</t>
-  </si>
-  <si>
     <t>March</t>
   </si>
   <si>
-    <t>Architecture Governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> book 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> book 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> book 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> book 1-2-3</t>
-  </si>
-  <si>
     <t>Give the exam</t>
   </si>
   <si>
-    <t>Schedule the exam and start revising</t>
-  </si>
-  <si>
-    <t>book 4</t>
-  </si>
-  <si>
-    <t>Revision of all questions</t>
-  </si>
-  <si>
-    <t>Q 101-102-103-104-105</t>
-  </si>
-  <si>
-    <t>Q 106-107-108-109-110</t>
-  </si>
-  <si>
-    <t>Q 111-112-113-114</t>
-  </si>
-  <si>
-    <t>Revision of all questions (101-114)</t>
-  </si>
-  <si>
-    <t>Architecture Partioning, TRM and IIIRM</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>ADM Phase Pre-A-Requirement Management (RM)</t>
-  </si>
-  <si>
-    <t>ADM Phase Pre-A-RM-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADM Phase Pre-A-RM-B-C </t>
-  </si>
-  <si>
-    <t>ADM Phase Pre-A-RM-B-C-D</t>
-  </si>
-  <si>
-    <t>ADM Phase Pre-A-RM-B-C-D-E</t>
-  </si>
-  <si>
-    <t>ADM Phase Pre-A-RM-B-C-D-E-F</t>
-  </si>
-  <si>
-    <t>ADM Phase Pre-A-RM-B-C-D-E-G</t>
-  </si>
-  <si>
-    <t>ADM Phase Pre-RM-A-B-C-D-E-H</t>
-  </si>
-  <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Holi</t>
+  </si>
+  <si>
+    <t>Find all part 2 questions on internet and add into your notes</t>
+  </si>
+  <si>
+    <t>Complete Book 4 questions and add into your notes</t>
+  </si>
+  <si>
+    <t>Revision all questions of your Part 2 notes</t>
+  </si>
+  <si>
+    <t>Complete all questions of Book 1 and revise your notes</t>
+  </si>
+  <si>
+    <t>Complete all questions of Book 2 and revise your notes</t>
+  </si>
+  <si>
+    <t>Complete all questions of Book 3 and revise your notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Duffy Part 1 course and study all questions of Book 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Duffy Part 2 course and study all questions of Book 1 </t>
   </si>
 </sst>
 </file>
@@ -159,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,13 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,16 +186,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -538,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G23"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,12 +491,11 @@
     <col min="3" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -567,387 +507,203 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="13">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
         <v>13</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="C15" s="9">
         <v>28</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="11">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <v>20</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="D15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <v>21</v>
-      </c>
-      <c r="C23" s="9">
-        <v>6</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="F15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
